--- a/new_modules/Summary_2023-05-22_L2A.xlsx
+++ b/new_modules/Summary_2023-05-22_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1168.98779296875</v>
+        <v>1202.253173828125</v>
       </c>
       <c r="C2">
-        <v>0.877</v>
+        <v>0.9019</v>
       </c>
       <c r="D2">
-        <v>0.8687000274658203</v>
+        <v>0.8992999792098999</v>
       </c>
       <c r="E2">
-        <v>1.129400014877319</v>
+        <v>1.041900038719177</v>
       </c>
       <c r="F2">
-        <v>0.6506000161170959</v>
+        <v>0.7164000272750854</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.3832</v>
+        <v>0.6542</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1353.949462890625</v>
+        <v>1213.76318359375</v>
       </c>
       <c r="C3">
-        <v>1.0832</v>
+        <v>0.971</v>
       </c>
       <c r="D3">
-        <v>0.9638</v>
+        <v>0.9056999999999999</v>
       </c>
       <c r="E3">
-        <v>2.630899906158447</v>
+        <v>1.574699997901917</v>
       </c>
       <c r="F3">
-        <v>0.6664000153541565</v>
+        <v>0.822700023651123</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.2252</v>
+        <v>0.7107</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>890.0023193359375</v>
+        <v>842.8361206054688</v>
       </c>
       <c r="C4">
-        <v>1.0397</v>
+        <v>0.9846</v>
       </c>
       <c r="D4">
-        <v>0.9538</v>
+        <v>0.9523</v>
       </c>
       <c r="E4">
-        <v>2.360100030899048</v>
+        <v>1.442999958992004</v>
       </c>
       <c r="F4">
-        <v>0.737500011920929</v>
+        <v>0.8457000255584717</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>1.1364</v>
+        <v>1.1233</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>870.7849731445312</v>
+        <v>908.736328125</v>
       </c>
       <c r="C5">
-        <v>0.9185</v>
+        <v>0.9586</v>
       </c>
       <c r="D5">
-        <v>0.8928</v>
+        <v>0.9213</v>
       </c>
       <c r="E5">
-        <v>1.465100049972534</v>
+        <v>1.223899960517883</v>
       </c>
       <c r="F5">
-        <v>0.6843000054359436</v>
+        <v>0.8320000171661377</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.5961</v>
+        <v>0.8486</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1139.30517578125</v>
+        <v>1183.89404296875</v>
       </c>
       <c r="C6">
-        <v>0.9013</v>
+        <v>0.9366</v>
       </c>
       <c r="D6">
-        <v>0.8974</v>
+        <v>0.918</v>
       </c>
       <c r="E6">
-        <v>1.151999950408936</v>
+        <v>1.178400039672852</v>
       </c>
       <c r="F6">
-        <v>0.7024000287055969</v>
+        <v>0.8572999835014343</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.6374</v>
+        <v>0.8195</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>859.9672241210938</v>
+        <v>922.9119873046875</v>
       </c>
       <c r="C7">
-        <v>0.866</v>
+        <v>0.9294</v>
       </c>
       <c r="D7">
-        <v>0.8580999970436096</v>
+        <v>0.9118000268936157</v>
       </c>
       <c r="E7">
-        <v>1.121099948883057</v>
+        <v>1.16129994392395</v>
       </c>
       <c r="F7">
-        <v>0.7208999991416931</v>
+        <v>0.8374999761581421</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.2894</v>
+        <v>0.7648</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>942.8568115234375</v>
+        <v>1019.223388671875</v>
       </c>
       <c r="C8">
-        <v>0.8449</v>
+        <v>0.9133</v>
       </c>
       <c r="D8">
-        <v>0.8391</v>
+        <v>0.9073</v>
       </c>
       <c r="E8">
-        <v>1.106799960136414</v>
+        <v>1.029000043869019</v>
       </c>
       <c r="F8">
-        <v>0.7279000282287598</v>
+        <v>0.8392000198364258</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.1209</v>
+        <v>0.7248</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7225.85400390625</v>
+        <v>7293.6181640625</v>
       </c>
       <c r="C9">
-        <v>0.9313</v>
+        <v>0.9399</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>2.630899906158447</v>
+        <v>1.574699997901917</v>
       </c>
       <c r="F9">
-        <v>0.6506000161170959</v>
+        <v>0.7164000272750854</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>4.388599999999999</v>
+        <v>5.6459</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-05-22_L2A.xlsx
+++ b/new_modules/Summary_2023-05-22_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1202.253173828125</v>
+        <v>1168.76318359375</v>
       </c>
       <c r="C2">
-        <v>0.9019</v>
+        <v>0.8768</v>
       </c>
       <c r="D2">
-        <v>0.8992999792098999</v>
+        <v>0.8686000108718872</v>
       </c>
       <c r="E2">
-        <v>1.041900038719177</v>
+        <v>1.129199981689453</v>
       </c>
       <c r="F2">
-        <v>0.7164000272750854</v>
+        <v>0.6503999829292297</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.6542</v>
+        <v>0.3817</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1213.76318359375</v>
+        <v>1353.689453125</v>
       </c>
       <c r="C3">
-        <v>0.971</v>
+        <v>1.083</v>
       </c>
       <c r="D3">
-        <v>0.9056999999999999</v>
+        <v>0.9636</v>
       </c>
       <c r="E3">
-        <v>1.574699997901917</v>
+        <v>2.630399942398071</v>
       </c>
       <c r="F3">
-        <v>0.822700023651123</v>
+        <v>0.6661999821662903</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.7107</v>
+        <v>1.2235</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>842.8361206054688</v>
+        <v>889.8314208984375</v>
       </c>
       <c r="C4">
-        <v>0.9846</v>
+        <v>1.0395</v>
       </c>
       <c r="D4">
-        <v>0.9523</v>
+        <v>0.9536</v>
       </c>
       <c r="E4">
-        <v>1.442999958992004</v>
+        <v>2.359600067138672</v>
       </c>
       <c r="F4">
-        <v>0.8457000255584717</v>
+        <v>0.7373999953269958</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>1.1233</v>
+        <v>1.1348</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>908.736328125</v>
+        <v>870.61767578125</v>
       </c>
       <c r="C5">
-        <v>0.9586</v>
+        <v>0.9184</v>
       </c>
       <c r="D5">
-        <v>0.9213</v>
+        <v>0.8925999999999999</v>
       </c>
       <c r="E5">
-        <v>1.223899960517883</v>
+        <v>1.464900016784668</v>
       </c>
       <c r="F5">
-        <v>0.8320000171661377</v>
+        <v>0.6840999722480774</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.8486</v>
+        <v>0.5946</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1183.89404296875</v>
+        <v>1139.08642578125</v>
       </c>
       <c r="C6">
-        <v>0.9366</v>
+        <v>0.9012</v>
       </c>
       <c r="D6">
-        <v>0.918</v>
+        <v>0.8973</v>
       </c>
       <c r="E6">
-        <v>1.178400039672852</v>
+        <v>1.151800036430359</v>
       </c>
       <c r="F6">
-        <v>0.8572999835014343</v>
+        <v>0.7023000121116638</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.8195</v>
+        <v>0.6358</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>922.9119873046875</v>
+        <v>859.8021240234375</v>
       </c>
       <c r="C7">
-        <v>0.9294</v>
+        <v>0.8659</v>
       </c>
       <c r="D7">
-        <v>0.9118000268936157</v>
+        <v>0.8579999804496765</v>
       </c>
       <c r="E7">
-        <v>1.16129994392395</v>
+        <v>1.12090003490448</v>
       </c>
       <c r="F7">
-        <v>0.8374999761581421</v>
+        <v>0.72079998254776</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.7648</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1019.223388671875</v>
+        <v>942.6757202148438</v>
       </c>
       <c r="C8">
-        <v>0.9133</v>
+        <v>0.8447</v>
       </c>
       <c r="D8">
-        <v>0.9073</v>
+        <v>0.839</v>
       </c>
       <c r="E8">
-        <v>1.029000043869019</v>
+        <v>1.106600046157837</v>
       </c>
       <c r="F8">
-        <v>0.8392000198364258</v>
+        <v>0.7278000116348267</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.7248</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7293.6181640625</v>
+        <v>7224.46630859375</v>
       </c>
       <c r="C9">
-        <v>0.9399</v>
+        <v>0.9311</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.574699997901917</v>
+        <v>2.630399942398071</v>
       </c>
       <c r="F9">
-        <v>0.7164000272750854</v>
+        <v>0.6503999829292297</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>5.6459</v>
+        <v>4.3779</v>
       </c>
     </row>
   </sheetData>
